--- a/src/test/resources/schuelerliste.xlsx
+++ b/src/test/resources/schuelerliste.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Entwicklung\workspace_job\losverfahren-service\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563EB19E-95EF-44C2-82BC-3F6BA3A47BA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880AA006-9541-47FA-B1AE-B771D17D06CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{49925BF5-3799-4867-B86B-5B2BB36FA3DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22305" windowHeight="5400" xr2:uid="{49925BF5-3799-4867-B86B-5B2BB36FA3DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Küttners" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="10">
   <si>
     <t>Stefan</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>Anna</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Ellensohn</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -72,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -388,39 +407,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2204F67F-1962-4338-AB1B-86E927009069}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>